--- a/irecodes-master/leak_demand.xlsx
+++ b/irecodes-master/leak_demand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>N0</t>
   </si>
@@ -86,87 +86,6 @@
   </si>
   <si>
     <t>PWFn20</t>
-  </si>
-  <si>
-    <t>f0t1Leak</t>
-  </si>
-  <si>
-    <t>f0t7Leak</t>
-  </si>
-  <si>
-    <t>f1t8Leak</t>
-  </si>
-  <si>
-    <t>f1t2Leak</t>
-  </si>
-  <si>
-    <t>f2t9Leak</t>
-  </si>
-  <si>
-    <t>f2t3Leak</t>
-  </si>
-  <si>
-    <t>f3t4Leak</t>
-  </si>
-  <si>
-    <t>f4t11Leak</t>
-  </si>
-  <si>
-    <t>f4t5Leak</t>
-  </si>
-  <si>
-    <t>f5t6Leak</t>
-  </si>
-  <si>
-    <t>f5t12Leak</t>
-  </si>
-  <si>
-    <t>f6t13Leak</t>
-  </si>
-  <si>
-    <t>f7t8Leak</t>
-  </si>
-  <si>
-    <t>f7t14Leak</t>
-  </si>
-  <si>
-    <t>f8t9Leak</t>
-  </si>
-  <si>
-    <t>f9t16Leak</t>
-  </si>
-  <si>
-    <t>f11t18Leak</t>
-  </si>
-  <si>
-    <t>f11t12Leak</t>
-  </si>
-  <si>
-    <t>f12t13Leak</t>
-  </si>
-  <si>
-    <t>f12t19Leak</t>
-  </si>
-  <si>
-    <t>f13t20Leak</t>
-  </si>
-  <si>
-    <t>f14t15Leak</t>
-  </si>
-  <si>
-    <t>f15t16Leak</t>
-  </si>
-  <si>
-    <t>f16t17Leak</t>
-  </si>
-  <si>
-    <t>f17t18Leak</t>
-  </si>
-  <si>
-    <t>f18t19Leak</t>
-  </si>
-  <si>
-    <t>f19t20Leak</t>
   </si>
   <si>
     <t>RES2</t>
@@ -536,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,89 +546,8 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -786,96 +624,15 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.004929024165079138</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.004929023667893205</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.004929024796317072</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.004929026709642458</v>
-      </c>
-      <c r="AD2">
-        <v>0.004929028323864852</v>
-      </c>
-      <c r="AE2">
-        <v>0.004929030238051007</v>
-      </c>
-      <c r="AF2">
-        <v>0.004929030532306827</v>
-      </c>
-      <c r="AG2">
-        <v>0.004929028805646404</v>
-      </c>
-      <c r="AH2">
-        <v>0.004929028846956601</v>
-      </c>
-      <c r="AI2">
-        <v>0.004929027744807802</v>
-      </c>
-      <c r="AJ2">
-        <v>0.00492902772726536</v>
-      </c>
-      <c r="AK2">
-        <v>0.004929027897624463</v>
-      </c>
-      <c r="AL2">
-        <v>0.004929024015147641</v>
-      </c>
-      <c r="AM2">
-        <v>0.004929023783025839</v>
-      </c>
-      <c r="AN2">
-        <v>0.004929025493188346</v>
-      </c>
-      <c r="AO2">
-        <v>0.004929028035868042</v>
-      </c>
-      <c r="AP2">
-        <v>0.004929027630403229</v>
-      </c>
-      <c r="AQ2">
-        <v>0.004929027700016577</v>
-      </c>
-      <c r="AR2">
-        <v>0.00492902787739162</v>
-      </c>
-      <c r="AS2">
-        <v>0.004929027855164221</v>
-      </c>
-      <c r="AT2">
-        <v>0.004929029802177505</v>
-      </c>
-      <c r="AU2">
-        <v>0.004929024498796733</v>
-      </c>
-      <c r="AV2">
-        <v>0.004929026767249911</v>
-      </c>
-      <c r="AW2">
-        <v>0.004929028240766103</v>
-      </c>
-      <c r="AX2">
-        <v>0.004929027592905209</v>
-      </c>
-      <c r="AY2">
-        <v>0.004929027774933229</v>
-      </c>
-      <c r="AZ2">
-        <v>0.004929029762748695</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
         <v>0</v>
       </c>
     </row>
